--- a/Unity/Assets/Config/Excel/StartConfig/Release_OutNet_aws_linux/StartMachineConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_OutNet_aws_linux/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_OutNet_aws_linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BE6080-56C4-4B70-9EBB-194D51EBC442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D490E10-7A52-4300-B11E-3D1DCCBB78B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
@@ -564,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>14</v>
